--- a/biology/Zoologie/Hipparchia_(papillon)/Hipparchia_(papillon).xlsx
+++ b/biology/Zoologie/Hipparchia_(papillon)/Hipparchia_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia est un genre de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Hipparchia leur a été donné par Johan Christian Fabricius en 1807.
-Synonymes : Eumenis Hübner, [1819]; Nytha Billberg, 1820; Melania Sodoffsky, 1837; Pseudotergumia Agenjo, 1947; Neohipparchia de Lesse, 1951; Parahipparchia Kudrna, 1977; Euhipparchia Kudrna, 1977[1]
+Synonymes : Eumenis Hübner, ; Nytha Billberg, 1820; Melania Sodoffsky, 1837; Pseudotergumia Agenjo, 1947; Neohipparchia de Lesse, 1951; Parahipparchia Kudrna, 1977; Euhipparchia Kudrna, 1977
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hipparchia algerica ou Hipparchia aristaeus algerica — Agreste d'Algérie
 Hipparchia aristaeus (Bonelli, 1826) — Agreste flamboyant. En Afrique du Nord, Asie Mineure et dans le sud de l'Europe.
@@ -597,9 +613,9 @@
 Hipparchia semele hibernica, en Irlande.
 Hipparchia semele leighebi Kudrna, 1976 ; ou Hipparchia leighebi en Sicile.
 Hipparchia semele pellucida (Stauder, 1924);
-Hipparchia semele sbordonii Kudrna, 1984 ; îles italiennes Pontines[2].
+Hipparchia semele sbordonii Kudrna, 1984 ; îles italiennes Pontines.
 Hipparchia semele scota sur les côtes d'Écosse.
-Hipparchia semele thyone[3]
+Hipparchia semele thyone
 Hipparchia senthes (Fruhstorfer, 1908) ou Hipparchia aristaeus sentes en Albanie, Macédoine, Bulgarie, Grèce et Turquie.
 Hipparchia statilinus (Hufnagel, 1766) — Faune. En Afrique du Nord, Asie Mineure et dans le sud et le centre de l'Europe.
 Hipparchia statilinus statilinus
